--- a/VersionRecords/Version 3.4.0.1/版本Bug和特性计划及评审表v3.4.0.1_马丁组.xlsx
+++ b/VersionRecords/Version 3.4.0.1/版本Bug和特性计划及评审表v3.4.0.1_马丁组.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -137,6 +137,14 @@
   </si>
   <si>
     <t>添加分散式公寓几栋几单元限制</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -786,7 +794,7 @@
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -907,9 +915,15 @@
       <c r="L2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="25"/>
+      <c r="M2" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="17">
+        <v>42576</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>37</v>
+      </c>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
       <c r="R2" s="26" t="s">
@@ -953,9 +967,15 @@
       <c r="L3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="17">
+        <v>42576</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>37</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="26" t="s">
